--- a/Artificiall_eye_ver00/Digikey/BOM_ShoppingCart_info_ver01.xlsx
+++ b/Artificiall_eye_ver00/Digikey/BOM_ShoppingCart_info_ver01.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Artificial Eye\PCBdesign_sk\Artificiall_eye_ver00\Digikey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A99B8002-4519-4ED6-B888-59A2F65EF054}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{685BDE43-11DF-42F7-A6C9-A2131E4269E8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="6165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11625" windowHeight="6165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ARTIFICIALL_EYE_VER00_yb" sheetId="1" r:id="rId1"/>
@@ -433,22 +433,22 @@
     <t>qty 0</t>
   </si>
   <si>
-    <t>P10.0KCCT-ND</t>
-  </si>
-  <si>
-    <t>mouser</t>
-  </si>
-  <si>
     <t>Digikey Shopping Cart Web ID : 281782103, Access ID 84725</t>
   </si>
   <si>
     <t>Mouser Shopping Cart Access ID: 272ef3dbad, https://www.mouser.com/ProjectManager/ProjectDetail.aspx?AccessID=272ef3dbad</t>
+  </si>
+  <si>
+    <t>Replaced this with P10.0KCCT-ND</t>
+  </si>
+  <si>
+    <t>Can be purchased in Mouser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1297,11 +1297,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,12 +1327,12 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1555,7 +1555,7 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1653,7 +1653,7 @@
         <v>136</v>
       </c>
       <c r="I26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1797,7 +1797,7 @@
         <v>136</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
